--- a/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.06582454205116939</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.04449825413450088</v>
+        <v>0.04449825413450086</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07324254611348409</v>
+        <v>0.07176672995877745</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05045853789899112</v>
+        <v>0.05259864798689984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03367930678426151</v>
+        <v>0.03411573079277386</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01732675834374902</v>
+        <v>0.01708937571549357</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05495957708463379</v>
+        <v>0.05388923191162571</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03342209313340998</v>
+        <v>0.03405975815248824</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1139897721625441</v>
+        <v>0.1137503058856746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09810094107600624</v>
+        <v>0.098428286864173</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06021658087434208</v>
+        <v>0.06182745000593083</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03892028721048695</v>
+        <v>0.03753544202951212</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07854882511414504</v>
+        <v>0.0794346766515814</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05661447285566713</v>
+        <v>0.05721623958573398</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.1208306151574779</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0655890085856603</v>
+        <v>0.06558900858566034</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1292503075163382</v>
+        <v>0.1305038992250409</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07099685589081611</v>
+        <v>0.0716665740290084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08440701485167171</v>
+        <v>0.08301853178486077</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03668391074386664</v>
+        <v>0.03714449417101085</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1109801974416854</v>
+        <v>0.1110743765792982</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05685871128757559</v>
+        <v>0.05652307758334037</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.162999161735737</v>
+        <v>0.1612983967735677</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1009364061774504</v>
+        <v>0.1016632137186243</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1102481692677888</v>
+        <v>0.1092736022631462</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05617205182428845</v>
+        <v>0.05595572051530619</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1326510466021707</v>
+        <v>0.13189125681733</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0741958399625918</v>
+        <v>0.07528077254501007</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.07783416217316654</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.03896787856412249</v>
+        <v>0.03896787856412248</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06247493250941689</v>
+        <v>0.06239532515334158</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02991223080253607</v>
+        <v>0.03031556257919684</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05099185554535762</v>
+        <v>0.05241620685942826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02030492263127255</v>
+        <v>0.01964679977665298</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06276109459363988</v>
+        <v>0.06212264690720828</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02861180643296005</v>
+        <v>0.02878677565811232</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1113106074802581</v>
+        <v>0.1090996420733073</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07012376296832083</v>
+        <v>0.07174613201595154</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09498803703568461</v>
+        <v>0.09774891378949152</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05038420352341209</v>
+        <v>0.05131424598568599</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09664364040624</v>
+        <v>0.0939652159048974</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05355488001334864</v>
+        <v>0.05274701414223606</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.1228090665218637</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07476237572913501</v>
+        <v>0.07476237572913498</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.07846892830598529</v>
@@ -870,7 +870,7 @@
         <v>0.1001492375781806</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.05619689942065685</v>
+        <v>0.05619689942065687</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1116945482072884</v>
+        <v>0.1129420367067408</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06374944338222155</v>
+        <v>0.06437040959301588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0699424422828214</v>
+        <v>0.06992398877061651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0328619366421217</v>
+        <v>0.03261327411974681</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09304027112743647</v>
+        <v>0.09314948095783866</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05022724578206614</v>
+        <v>0.05056506931614104</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1338004535299138</v>
+        <v>0.1357347092858094</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08597873836167644</v>
+        <v>0.08740024443348196</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08784744003171528</v>
+        <v>0.08794325505993579</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0460749130198807</v>
+        <v>0.04592728870335057</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1074195010407713</v>
+        <v>0.1075103214674453</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06261297487195724</v>
+        <v>0.06255968874514348</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>54622</v>
+        <v>53522</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29120</v>
+        <v>30355</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>33097</v>
+        <v>33526</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14243</v>
+        <v>14048</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>94997</v>
+        <v>93147</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>46763</v>
+        <v>47655</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>85010</v>
+        <v>84832</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>56615</v>
+        <v>56804</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>59176</v>
+        <v>60759</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>31994</v>
+        <v>30856</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>135771</v>
+        <v>137302</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>79212</v>
+        <v>80054</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>267199</v>
+        <v>269790</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>158174</v>
+        <v>159666</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>167025</v>
+        <v>164277</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>79394</v>
+        <v>80391</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>449037</v>
+        <v>449418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>249733</v>
+        <v>248259</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>336967</v>
+        <v>333451</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>224876</v>
+        <v>226496</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>218160</v>
+        <v>216231</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>121572</v>
+        <v>121103</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>536719</v>
+        <v>533645</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>325881</v>
+        <v>330646</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>33984</v>
+        <v>33941</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21285</v>
+        <v>21572</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27902</v>
+        <v>28681</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14877</v>
+        <v>14395</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>68481</v>
+        <v>67785</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>41324</v>
+        <v>41576</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>60549</v>
+        <v>59346</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>49899</v>
+        <v>51054</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>51976</v>
+        <v>53486</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36916</v>
+        <v>37598</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>105452</v>
+        <v>102530</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>77348</v>
+        <v>76182</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>374962</v>
+        <v>379150</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>224181</v>
+        <v>226365</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>245407</v>
+        <v>245343</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>122214</v>
+        <v>121289</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>638790</v>
+        <v>639540</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>363425</v>
+        <v>365869</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>449173</v>
+        <v>455666</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>302353</v>
+        <v>307352</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>308231</v>
+        <v>308567</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>171353</v>
+        <v>170804</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>737514</v>
+        <v>738138</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>453043</v>
+        <v>452657</v>
       </c>
     </row>
     <row r="20">
